--- a/data/trans_dic/P36$otros-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01450841894979128</v>
+        <v>0.01460192077540428</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.006182267029528828</v>
+        <v>0.00646001722529301</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02362298264725778</v>
+        <v>0.02387072602727464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005572819044042737</v>
+        <v>0.006024505597111901</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0008928978756720175</v>
+        <v>0.0009237124460317859</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02577346091319584</v>
+        <v>0.02557686824101128</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01151556509511203</v>
+        <v>0.01185749877631728</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004748380882808138</v>
+        <v>0.004523881663707019</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02762427062569181</v>
+        <v>0.02752116638902092</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04478625821805553</v>
+        <v>0.04413936825027445</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02246050798814296</v>
+        <v>0.02234752056284031</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04593099663651844</v>
+        <v>0.04597889009784546</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01860904486863759</v>
+        <v>0.01958843644898691</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.009029594514704984</v>
+        <v>0.008197255729163756</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04703739300175678</v>
+        <v>0.04805627054007248</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02482456538079874</v>
+        <v>0.02598405273252977</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01319841283323776</v>
+        <v>0.01338668137508337</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.043015443390247</v>
+        <v>0.04303712055870555</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01241806161164494</v>
+        <v>0.01273603122635728</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004864891630072745</v>
+        <v>0.00467688477512635</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01590497469657983</v>
+        <v>0.01526881684939169</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01111304466785648</v>
+        <v>0.01125559535597346</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006322540707462274</v>
+        <v>0.005755505807203714</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02370379131162749</v>
+        <v>0.02301006143629733</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01365848240322797</v>
+        <v>0.01372014266951788</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006653939384289089</v>
+        <v>0.006850139684422889</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02172874072165308</v>
+        <v>0.02154349435606967</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03083282472648885</v>
+        <v>0.03049361450685456</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02008110076059193</v>
+        <v>0.02103724041706901</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03590714947127459</v>
+        <v>0.03691730009395049</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02736622912478916</v>
+        <v>0.02758427932335905</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01961494587170304</v>
+        <v>0.0182266673262819</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.046571417020912</v>
+        <v>0.04691922554556396</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02559087856063661</v>
+        <v>0.02516659898648466</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01710098789209218</v>
+        <v>0.01643297180224862</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03709498391958388</v>
+        <v>0.03786010553625374</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008215197217094999</v>
+        <v>0.007800163429573952</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004386629067413999</v>
+        <v>0.004271152285242756</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03299138358286059</v>
+        <v>0.03221294978735781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01023956252812545</v>
+        <v>0.01049144522013801</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007660462880579142</v>
+        <v>0.008378410842475918</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02383560326598618</v>
+        <v>0.02324877830406361</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01082976165659842</v>
+        <v>0.01126354145112621</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007703553565012002</v>
+        <v>0.007670705697662681</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03236919467299246</v>
+        <v>0.03289974192879429</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02248087884900574</v>
+        <v>0.02197775580832046</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01754184987694246</v>
+        <v>0.01710929122151691</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06347707543200209</v>
+        <v>0.06319632908094205</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0256950627349235</v>
+        <v>0.02640169444745242</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02656298377732475</v>
+        <v>0.02680077127389981</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05263135337221368</v>
+        <v>0.05074110571057431</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02153422390600132</v>
+        <v>0.02108536475375294</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01905134523201658</v>
+        <v>0.01852264487702232</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05369014494744432</v>
+        <v>0.05261388853409912</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005377061772902518</v>
+        <v>0.005953040803309714</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003672908568403784</v>
+        <v>0.003765098316138009</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05060732209147046</v>
+        <v>0.05029059530262273</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.005961643130681399</v>
+        <v>0.005920507866612947</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01119169046377271</v>
+        <v>0.01115039967927</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05840116757058362</v>
+        <v>0.0569652783308057</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.007248056773009549</v>
+        <v>0.006807818454800548</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008470701174550288</v>
+        <v>0.009196595122503265</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06264742345659072</v>
+        <v>0.06061346045882979</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02774918688563764</v>
+        <v>0.03053702387816441</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02215406138853947</v>
+        <v>0.02065657521004046</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09848083511923471</v>
+        <v>0.09716339760668617</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03436145632625039</v>
+        <v>0.03717447814729775</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04351919089771592</v>
+        <v>0.042962845965522</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1111285913084029</v>
+        <v>0.1090931523510601</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02540631134345447</v>
+        <v>0.02441756759989454</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02585649699868365</v>
+        <v>0.0254948553695975</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09635658779968292</v>
+        <v>0.09661781994005095</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01376216171690944</v>
+        <v>0.01384536914772967</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007461725154925532</v>
+        <v>0.007323020077104928</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03357317770810994</v>
+        <v>0.03384340890423155</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01199231357356374</v>
+        <v>0.01193519840967127</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008246970016728767</v>
+        <v>0.008220199387188515</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03480413023310391</v>
+        <v>0.03493000784745786</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01385410342516173</v>
+        <v>0.01407324538335784</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008709049742002459</v>
+        <v>0.008492542149563539</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03613378926072075</v>
+        <v>0.03621967229727428</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02354602569561382</v>
+        <v>0.02341515616876188</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0146468781552251</v>
+        <v>0.01536508333709447</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04789866630822297</v>
+        <v>0.04781749993088125</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.020459250845415</v>
+        <v>0.02070378959384792</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01522154101277467</v>
+        <v>0.01581207840403821</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04937899649088618</v>
+        <v>0.04968954190379723</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02031875686471462</v>
+        <v>0.02049508417178846</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01405914692702845</v>
+        <v>0.01377760310781439</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04591504843934231</v>
+        <v>0.04607092079490486</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8475</v>
+        <v>8530</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6435</v>
+        <v>6725</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26621</v>
+        <v>26900</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5140</v>
+        <v>5557</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>997</v>
+        <v>1032</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>32463</v>
+        <v>32216</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>17348</v>
+        <v>17863</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>10246</v>
+        <v>9762</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>65925</v>
+        <v>65679</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26161</v>
+        <v>25784</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23380</v>
+        <v>23263</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>51760</v>
+        <v>51814</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>17164</v>
+        <v>18067</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>10085</v>
+        <v>9156</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>59246</v>
+        <v>60530</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>37398</v>
+        <v>39144</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>28481</v>
+        <v>28887</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>102655</v>
+        <v>102707</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13347</v>
+        <v>13689</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4744</v>
+        <v>4561</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14423</v>
+        <v>13846</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11731</v>
+        <v>11881</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>6919</v>
+        <v>6298</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>23807</v>
+        <v>23110</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29098</v>
+        <v>29229</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>13770</v>
+        <v>14176</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>41527</v>
+        <v>41173</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33140</v>
+        <v>32775</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19583</v>
+        <v>20515</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32562</v>
+        <v>33478</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28887</v>
+        <v>29118</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21464</v>
+        <v>19945</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>46773</v>
+        <v>47123</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>54519</v>
+        <v>53615</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>35390</v>
+        <v>34007</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>70895</v>
+        <v>72357</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9192</v>
+        <v>8727</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3883</v>
+        <v>3780</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27148</v>
+        <v>26507</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10167</v>
+        <v>10417</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6700</v>
+        <v>7328</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18379</v>
+        <v>17926</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22869</v>
+        <v>23785</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13556</v>
+        <v>13499</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>51594</v>
+        <v>52440</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>25153</v>
+        <v>24590</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15527</v>
+        <v>15144</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>52233</v>
+        <v>52002</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>25512</v>
+        <v>26213</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23233</v>
+        <v>23441</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>40582</v>
+        <v>39124</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>45474</v>
+        <v>44526</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33526</v>
+        <v>32595</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>85578</v>
+        <v>83863</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2400</v>
+        <v>2657</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1844</v>
+        <v>1890</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25643</v>
+        <v>25482</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2034</v>
+        <v>2020</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5045</v>
+        <v>5026</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>28534</v>
+        <v>27832</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5708</v>
+        <v>5361</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8071</v>
+        <v>8762</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>62352</v>
+        <v>60328</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12385</v>
+        <v>13629</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11121</v>
+        <v>10369</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49900</v>
+        <v>49233</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11723</v>
+        <v>12682</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19617</v>
+        <v>19367</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>54296</v>
+        <v>53301</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20006</v>
+        <v>19228</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>24635</v>
+        <v>24290</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>95902</v>
+        <v>96162</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>44371</v>
+        <v>44639</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>25394</v>
+        <v>24922</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>112917</v>
+        <v>113826</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>39718</v>
+        <v>39529</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>29166</v>
+        <v>29072</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>122634</v>
+        <v>123077</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>90551</v>
+        <v>91983</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>60439</v>
+        <v>58937</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>248848</v>
+        <v>249440</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>75915</v>
+        <v>75493</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>49847</v>
+        <v>52291</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>161098</v>
+        <v>160825</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>67760</v>
+        <v>68570</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>53832</v>
+        <v>55921</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>173989</v>
+        <v>175083</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>132804</v>
+        <v>133957</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>97568</v>
+        <v>95614</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>316210</v>
+        <v>317284</v>
       </c>
     </row>
     <row r="24">
